--- a/$TTWO.xlsx
+++ b/$TTWO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0106904F-4AF5-4CCB-846C-01C35E85E259}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AFD013-9511-4E02-B5F0-A50572982B38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6715A551-CC17-45B2-BADD-F9B52A0B5573}"/>
   </bookViews>
@@ -253,15 +253,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -276,13 +267,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -291,16 +294,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -620,7 +620,7 @@
   <dimension ref="B2:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -639,228 +639,240 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>141.83000000000001</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>169.83</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <f>C6*C7</f>
         <v>24086.988900000004</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <f>C9-C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <f>C8-C11</f>
         <v>24086.988900000004</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="16">
         <v>1993</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="19"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="19"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="19"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="19"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="19"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="19"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="19"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="19"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
@@ -868,18 +880,6 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="125" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
